--- a/updated_file (1).xlsx
+++ b/updated_file (1).xlsx
@@ -49,25 +49,25 @@
     <t xml:space="preserve">Office Location</t>
   </si>
   <si>
+    <t xml:space="preserve">Timesheet Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hourly Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee - NR Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Company Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odoo Role</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timesheet Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hourly Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee - NR Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Company Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odoo Role</t>
   </si>
   <si>
     <t xml:space="preserve">User Created</t>
@@ -4285,8 +4285,8 @@
   </sheetPr>
   <dimension ref="A1:S346"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A302" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C318" activeCellId="0" sqref="C318"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4342,25 +4342,25 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>15</v>
